--- a/Mundial/Participantes.xlsx
+++ b/Mundial/Participantes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="inscritos" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
   <si>
     <t>Institución</t>
   </si>
@@ -234,6 +234,21 @@
   </si>
   <si>
     <t>Huincha 3M + Galletas + jugo + Papa</t>
+  </si>
+  <si>
+    <t>L = local</t>
+  </si>
+  <si>
+    <t>A = ausente</t>
+  </si>
+  <si>
+    <t>X = Asistió</t>
+  </si>
+  <si>
+    <t>V = No asistió pero ya recibió los materiales</t>
+  </si>
+  <si>
+    <t>XO = Le debemos un pato</t>
   </si>
 </sst>
 </file>
@@ -721,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G24"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +751,7 @@
     <col min="6" max="6" width="6.28515625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>54</v>
       </c>
@@ -747,7 +762,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -767,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -787,7 +802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -807,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
@@ -830,7 +845,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -850,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
@@ -870,7 +885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -890,7 +905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -909,15 +924,18 @@
       <c r="F10" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="23">
         <v>13</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -929,8 +947,11 @@
       <c r="F11" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>66</v>
       </c>
@@ -949,8 +970,11 @@
       <c r="F12" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -969,8 +993,11 @@
       <c r="F13" s="15">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -989,8 +1016,11 @@
       <c r="F14" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
@@ -1010,7 +1040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1159,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>

--- a/Mundial/Participantes.xlsx
+++ b/Mundial/Participantes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
   <si>
     <t>Institución</t>
   </si>
@@ -218,9 +218,6 @@
     <t>a</t>
   </si>
   <si>
-    <t>4 , 30</t>
-  </si>
-  <si>
     <t>xo</t>
   </si>
   <si>
@@ -249,6 +246,15 @@
   </si>
   <si>
     <t>XO = Le debemos un pato</t>
+  </si>
+  <si>
+    <t>ex 29</t>
+  </si>
+  <si>
+    <t>4 , 29</t>
+  </si>
+  <si>
+    <t>12, 30</t>
   </si>
 </sst>
 </file>
@@ -311,7 +317,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -327,6 +333,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +372,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -396,6 +408,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -738,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,10 +803,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
@@ -907,10 +926,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="23">
-        <v>12</v>
+        <v>67</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>58</v>
@@ -922,10 +941,10 @@
         <v>21</v>
       </c>
       <c r="F10" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -948,7 +967,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -971,7 +990,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -994,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1017,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -1121,24 +1140,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="23">
-        <v>29</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="15">
-        <v>1</v>
-      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
@@ -1148,6 +1154,26 @@
       <c r="F21" s="18">
         <f>SUM(F3:F20)</f>
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="29">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1178,7 +1204,7 @@
     <hyperlink ref="E18" r:id="rId15"/>
     <hyperlink ref="E3" r:id="rId16"/>
     <hyperlink ref="E15" r:id="rId17"/>
-    <hyperlink ref="E20" r:id="rId18"/>
+    <hyperlink ref="E22" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -1244,7 +1270,7 @@
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" s="9"/>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="3">
         <v>38000</v>

--- a/Mundial/Participantes.xlsx
+++ b/Mundial/Participantes.xlsx
@@ -10,12 +10,12 @@
     <sheet name="inscritos" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>Institución</t>
   </si>
@@ -255,15 +255,19 @@
   </si>
   <si>
     <t>12, 30</t>
+  </si>
+  <si>
+    <t>Pago</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  <numFmts count="3">
+    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -367,27 +371,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -415,10 +420,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda [0]" xfId="3" builtinId="7"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -755,456 +762,562 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H24"/>
+  <dimension ref="A2:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>65</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="15">
+      <c r="G3" s="30">
+        <f>C3*25000</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
       <c r="B4" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="23">
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17">
+      <c r="G4" s="30">
+        <f>C4*25000</f>
+        <v>25000</v>
+      </c>
+      <c r="H4" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="23">
         <v>5.6</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="23">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="15">
+      <c r="G5" s="30">
+        <f>25000*C5</f>
+        <v>25000</v>
+      </c>
+      <c r="H5" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>63</v>
       </c>
       <c r="B6" s="23">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="15">
+      <c r="G6" s="30">
+        <f t="shared" ref="G6:G19" si="0">25000*C6</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="15">
         <v>1</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="I6" s="24" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
       <c r="B7" s="23">
         <v>8</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="15">
+      <c r="G7" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="23">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="15">
+      <c r="G8" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="23">
         <v>10.11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="15">
+      <c r="G9" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="23">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="15">
+      <c r="G10" s="30">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="H10" s="15">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>63</v>
       </c>
       <c r="B11" s="23">
         <v>13</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="15">
+      <c r="G11" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="15">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>66</v>
       </c>
       <c r="B12" s="23">
         <v>14.15</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="15">
+      <c r="G12" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
       <c r="B13" s="23">
         <v>16.170000000000002</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="15">
+      <c r="G13" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
         <v>2</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="23">
         <v>18</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="23"/>
+      <c r="D14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="15">
+      <c r="G14" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="15">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>66</v>
       </c>
       <c r="B15" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="23"/>
+      <c r="D15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="15">
+      <c r="G15" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="15">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="23">
         <v>23</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="23"/>
+      <c r="D16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="15">
+      <c r="G16" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
       <c r="B17" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="23"/>
+      <c r="D17" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="15">
+      <c r="G17" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="23">
         <v>27</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="23"/>
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F18" s="15">
+      <c r="G18" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="23">
         <v>28</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="23"/>
+      <c r="D19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="F19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="15">
+      <c r="G19" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23"/>
-      <c r="C20" s="1"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="15"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B21" s="21"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="18">
-        <f>SUM(F3:F20)</f>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="18">
+        <f>SUM(H3:H20)</f>
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="E22" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="F22" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="29">
+      <c r="G22" s="28">
+        <f>SUM(G3:G20)</f>
+        <v>100000</v>
+      </c>
+      <c r="H22" s="29">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="4">
-        <f>(F21-3)*25000</f>
+      <c r="E24" s="4">
+        <f>(H21-3)*25000</f>
         <v>675000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
-    <hyperlink ref="E6" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E8" r:id="rId5"/>
-    <hyperlink ref="E10" r:id="rId6"/>
-    <hyperlink ref="E9" r:id="rId7"/>
-    <hyperlink ref="E12" r:id="rId8"/>
-    <hyperlink ref="E11" r:id="rId9"/>
-    <hyperlink ref="E14" r:id="rId10"/>
-    <hyperlink ref="E13" r:id="rId11"/>
-    <hyperlink ref="E16" r:id="rId12"/>
-    <hyperlink ref="E17" r:id="rId13"/>
-    <hyperlink ref="E19" r:id="rId14"/>
-    <hyperlink ref="E18" r:id="rId15"/>
-    <hyperlink ref="E3" r:id="rId16"/>
-    <hyperlink ref="E15" r:id="rId17"/>
-    <hyperlink ref="E22" r:id="rId18"/>
+    <hyperlink ref="F7" r:id="rId1"/>
+    <hyperlink ref="F6" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="F10" r:id="rId6"/>
+    <hyperlink ref="F9" r:id="rId7"/>
+    <hyperlink ref="F12" r:id="rId8"/>
+    <hyperlink ref="F11" r:id="rId9"/>
+    <hyperlink ref="F14" r:id="rId10"/>
+    <hyperlink ref="F13" r:id="rId11"/>
+    <hyperlink ref="F16" r:id="rId12"/>
+    <hyperlink ref="F17" r:id="rId13"/>
+    <hyperlink ref="F19" r:id="rId14"/>
+    <hyperlink ref="F18" r:id="rId15"/>
+    <hyperlink ref="F3" r:id="rId16"/>
+    <hyperlink ref="F15" r:id="rId17"/>
+    <hyperlink ref="F22" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>

--- a/Mundial/Participantes.xlsx
+++ b/Mundial/Participantes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="84">
   <si>
     <t>Institución</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Comida</t>
   </si>
   <si>
-    <t>Trofeos/Medallas</t>
-  </si>
-  <si>
     <t>davidaparicio@liceo1.cl</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>Colegio Suizo de Santiago</t>
   </si>
   <si>
-    <t>otros</t>
-  </si>
-  <si>
     <t>Colegio Mariano de Schöenstatt</t>
   </si>
   <si>
@@ -258,6 +252,21 @@
   </si>
   <si>
     <t>Pago</t>
+  </si>
+  <si>
+    <t>Huincha 3M Extra</t>
+  </si>
+  <si>
+    <t>Trofeos/Medallas/Cheque</t>
+  </si>
+  <si>
+    <t>Comprobante</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -269,10 +278,25 @@
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -301,11 +325,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -315,10 +338,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -374,53 +411,69 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -762,562 +815,628 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J24"/>
+  <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="19" customWidth="1"/>
-    <col min="4" max="4" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="2" width="10.7109375" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.7109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="28" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="12">
+        <f>D3*25000</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="30">
-        <f>C3*25000</f>
+      <c r="B4" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="12">
+        <f>D4*25000</f>
+        <v>50000</v>
+      </c>
+      <c r="I4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="13">
+        <v>5.6</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="13">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="12">
+        <f>25000*D5</f>
+        <v>50000</v>
+      </c>
+      <c r="I5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="33">
+        <v>7</v>
+      </c>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="37">
+        <f t="shared" ref="H6:H19" si="0">25000*D6</f>
         <v>0</v>
       </c>
-      <c r="H3" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="23">
+      <c r="I6" s="9">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" s="30">
-        <f>C4*25000</f>
-        <v>25000</v>
-      </c>
-      <c r="H4" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J6" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="23">
-        <v>5.6</v>
-      </c>
-      <c r="C5" s="23">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="30">
-        <f>25000*C5</f>
-        <v>25000</v>
-      </c>
-      <c r="H5" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="23">
-        <v>7</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="B7" s="13">
         <v>8</v>
       </c>
-      <c r="G6" s="30">
-        <f t="shared" ref="G6:G19" si="0">25000*C6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>1</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="23">
-        <v>8</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="G7" s="30">
+      <c r="G7" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="15">
+      <c r="I7" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="23">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="13">
         <v>9</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="C8" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="33">
+        <v>10.11</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="15">
+      <c r="I9" s="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="I10" s="9">
+        <v>2</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="33">
+        <v>13</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9" s="23">
-        <v>10.11</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="10" t="s">
+      <c r="E11" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="37">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I11" s="35">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="13">
+        <v>14.15</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="I12" s="9">
+        <v>2</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="13">
+        <v>16.170000000000002</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="13">
+        <v>2</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="0"/>
+        <v>50000</v>
+      </c>
+      <c r="I13" s="9">
+        <v>2</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="13">
+        <v>18</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13">
+        <v>4</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+      <c r="I15" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="13">
+        <v>23</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="13">
+        <v>1</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="13">
+        <v>3</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="0"/>
+        <v>75000</v>
+      </c>
+      <c r="I17" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="13">
+        <v>27</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="0"/>
+        <v>25000</v>
+      </c>
+      <c r="I18" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="13">
+        <v>28</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="30">
+      <c r="F19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="I19" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="23">
+        <f>SUM(I3:I20)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C10" s="23">
-        <v>2</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="30">
-        <f t="shared" si="0"/>
-        <v>50000</v>
-      </c>
-      <c r="H10" s="15">
-        <v>2</v>
-      </c>
-      <c r="J10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="23">
-        <v>13</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
+      <c r="G22" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="27">
+        <f>SUM(H3:H20)</f>
+        <v>550000</v>
+      </c>
+      <c r="I22" s="26">
         <v>1</v>
       </c>
-      <c r="J11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="23">
-        <v>14.15</v>
-      </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
-        <v>2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="23">
-        <v>16.170000000000002</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="23">
-        <v>18</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="23">
-        <v>23</v>
-      </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="23">
-        <v>27</v>
-      </c>
-      <c r="C18" s="23"/>
-      <c r="D18" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G18" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="23">
-        <v>28</v>
-      </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="18">
-        <f>SUM(H3:H20)</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G22" s="28">
-        <f>SUM(G3:G20)</f>
-        <v>100000</v>
-      </c>
-      <c r="H22" s="29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="4">
-        <f>(H21-3)*25000</f>
+      <c r="F24" s="29">
+        <f>(I21-3)*25000</f>
         <v>675000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1"/>
-    <hyperlink ref="F6" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
-    <hyperlink ref="F4" r:id="rId4"/>
-    <hyperlink ref="F8" r:id="rId5"/>
-    <hyperlink ref="F10" r:id="rId6"/>
-    <hyperlink ref="F9" r:id="rId7"/>
-    <hyperlink ref="F12" r:id="rId8"/>
-    <hyperlink ref="F11" r:id="rId9"/>
-    <hyperlink ref="F14" r:id="rId10"/>
-    <hyperlink ref="F13" r:id="rId11"/>
-    <hyperlink ref="F16" r:id="rId12"/>
-    <hyperlink ref="F17" r:id="rId13"/>
-    <hyperlink ref="F19" r:id="rId14"/>
-    <hyperlink ref="F18" r:id="rId15"/>
-    <hyperlink ref="F3" r:id="rId16"/>
-    <hyperlink ref="F15" r:id="rId17"/>
-    <hyperlink ref="F22" r:id="rId18"/>
+    <hyperlink ref="G7" r:id="rId1"/>
+    <hyperlink ref="G6" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="G4" r:id="rId4"/>
+    <hyperlink ref="G8" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G9" r:id="rId7"/>
+    <hyperlink ref="G12" r:id="rId8"/>
+    <hyperlink ref="G11" r:id="rId9"/>
+    <hyperlink ref="G14" r:id="rId10"/>
+    <hyperlink ref="G13" r:id="rId11"/>
+    <hyperlink ref="G16" r:id="rId12"/>
+    <hyperlink ref="G17" r:id="rId13"/>
+    <hyperlink ref="G19" r:id="rId14"/>
+    <hyperlink ref="G18" r:id="rId15"/>
+    <hyperlink ref="G3" r:id="rId16"/>
+    <hyperlink ref="G15" r:id="rId17"/>
+    <hyperlink ref="G22" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -1326,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,66 +1468,63 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>675000</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3">
-        <v>150000</v>
+        <v>80</v>
+      </c>
+      <c r="F4" s="1">
+        <v>140000</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
+      <c r="C5" s="1"/>
       <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="3">
-        <v>120000</v>
+      <c r="F5" s="1">
+        <v>140000</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="7">
+      <c r="C6" s="1"/>
+      <c r="E6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
         <f>SUM(C4:C5)</f>
         <v>675000</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="1">
         <v>367000</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="9"/>
-      <c r="E7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C8" s="4"/>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="1">
         <v>38000</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="4">
-        <f>SUM(F4:F7)</f>
-        <v>675000</v>
-      </c>
-    </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F9">
-        <f>40*(1500+5500+2150)</f>
-        <v>366000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="14">
-        <f>F6-F9</f>
-        <v>1000</v>
-      </c>
+      <c r="F9" s="2">
+        <f>SUM(F4:F8)</f>
+        <v>688000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
